--- a/data_rev2.xlsx
+++ b/data_rev2.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GÖRKEM_YEDEK\Belgeler\Turkish_energy_and_climate_pathways\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB74D54-E25D-4AE6-A973-C0CE577F5AE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCB92B9-5EF9-431D-AD85-9285884E0050}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="111">
   <si>
     <t>Model</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Linear Programming</t>
   </si>
   <si>
-    <t>CO2 Scenario</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Secondary Energy|Electricity|Renewables</t>
   </si>
   <si>
-    <t>Baseline Scenario</t>
-  </si>
-  <si>
     <t>Emissions|CO2</t>
   </si>
   <si>
@@ -127,18 +121,9 @@
     <t>Secondary Energy|Electricity|Gases</t>
   </si>
   <si>
-    <t>Net-Zero Scenario</t>
-  </si>
-  <si>
     <t>Regression Analysis</t>
   </si>
   <si>
-    <t>Optimistic Scenario</t>
-  </si>
-  <si>
-    <t>Pessimistic Scenario</t>
-  </si>
-  <si>
     <t>Market Based Simulation</t>
   </si>
   <si>
@@ -169,9 +154,6 @@
     <t>Secondary Energy|Electricity|Gas</t>
   </si>
   <si>
-    <t>Gungor (2020)</t>
-  </si>
-  <si>
     <t>SSP1-Baseline-FIT</t>
   </si>
   <si>
@@ -229,21 +211,12 @@
     <t>SSP3-RCP3.4-FIT</t>
   </si>
   <si>
-    <t>Reference Scenario</t>
-  </si>
-  <si>
-    <t>Alternative Scenario</t>
-  </si>
-  <si>
     <t>Difiglio et al. (2020)</t>
   </si>
   <si>
     <t>MENR (2022)</t>
   </si>
   <si>
-    <t>IPC (2022)</t>
-  </si>
-  <si>
     <t>Akalın et al. (2012)</t>
   </si>
   <si>
@@ -299,6 +272,87 @@
   </si>
   <si>
     <t>Secondary Energy|Electricity|Geothermal</t>
+  </si>
+  <si>
+    <t>MoEUCC (2023)</t>
+  </si>
+  <si>
+    <t>Gungor and Sari (2020)</t>
+  </si>
+  <si>
+    <t>Calikoglu and Koksal (2023)</t>
+  </si>
+  <si>
+    <t>Physical Accounting</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity</t>
+  </si>
+  <si>
+    <t>Extended High Demand</t>
+  </si>
+  <si>
+    <t>Extended Low Demand</t>
+  </si>
+  <si>
+    <t>Extended Medium Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net-Zero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimistic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pessimistic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative </t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delayed Net-Zero </t>
+  </si>
+  <si>
+    <t>Secondary Energy|Hydrogen</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Gases|Other</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Liquids|Other</t>
+  </si>
+  <si>
+    <t>Güllü et al. (2023)</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Biomass</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>Taranto et al. (2021)</t>
+  </si>
+  <si>
+    <t>Transition with High CO2 Tax</t>
+  </si>
+  <si>
+    <t>Tör et al. (2022)</t>
   </si>
 </sst>
 </file>
@@ -1157,17 +1211,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I188" sqref="I188"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1208,22 +1262,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>24.6</v>
@@ -1237,22 +1291,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>39.799999999999997</v>
@@ -1266,22 +1320,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>42.2</v>
@@ -1295,22 +1349,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>8</v>
@@ -1321,22 +1375,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>40.6</v>
@@ -1350,22 +1404,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>36.299999999999997</v>
@@ -1376,22 +1430,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>25.8</v>
@@ -1402,22 +1456,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>16.399999999999999</v>
@@ -1428,22 +1482,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>27</v>
@@ -1454,22 +1508,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>16.5</v>
@@ -1477,22 +1531,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>45.5</v>
@@ -1500,22 +1554,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>33.700000000000003</v>
@@ -1523,22 +1577,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <v>7</v>
@@ -1546,22 +1600,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>3.9</v>
@@ -1569,22 +1623,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16">
         <v>120</v>
@@ -1595,22 +1649,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17">
         <v>60.7</v>
@@ -1621,22 +1675,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18">
         <v>80.599999999999994</v>
@@ -1647,22 +1701,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <v>1.4</v>
@@ -1673,22 +1727,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <v>7.6</v>
@@ -1699,22 +1753,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21">
         <v>176.7</v>
@@ -1725,22 +1779,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <v>37.200000000000003</v>
@@ -1748,22 +1802,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>78.099999999999994</v>
@@ -1774,22 +1828,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24">
         <v>24.8</v>
@@ -1800,22 +1854,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25">
         <v>11</v>
@@ -1826,22 +1880,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <v>16.100000000000001</v>
@@ -1852,22 +1906,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27">
         <v>130</v>
@@ -1878,22 +1932,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
         <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
       </c>
       <c r="H28">
         <v>673</v>
@@ -1904,22 +1958,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>466.9</v>
@@ -1930,22 +1984,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
         <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
       </c>
       <c r="I30">
         <v>460</v>
@@ -1956,22 +2010,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31">
         <v>37.5</v>
@@ -1979,22 +2033,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
         <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
       </c>
       <c r="H32">
         <v>397.9</v>
@@ -2008,22 +2062,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33">
         <v>90</v>
@@ -2034,22 +2088,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34">
         <v>72.5</v>
@@ -2060,22 +2114,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35">
         <v>10</v>
@@ -2083,22 +2137,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>397.2</v>
@@ -2112,22 +2166,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <v>28.9</v>
@@ -2147,22 +2201,22 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38">
         <v>5.0999999999999996</v>
@@ -2182,22 +2236,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>30.6</v>
@@ -2217,22 +2271,22 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <v>15.3</v>
@@ -2252,22 +2306,22 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41">
         <v>3.5</v>
@@ -2287,22 +2341,22 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <v>28.9</v>
@@ -2322,22 +2376,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43">
         <v>5.0999999999999996</v>
@@ -2357,22 +2411,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44">
         <v>30.6</v>
@@ -2392,22 +2446,22 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45">
         <v>15.3</v>
@@ -2427,22 +2481,22 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46">
         <v>3.5</v>
@@ -2462,22 +2516,22 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47">
         <v>28.9</v>
@@ -2497,22 +2551,22 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48">
         <v>5.0999999999999996</v>
@@ -2532,22 +2586,22 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49">
         <v>30.6</v>
@@ -2567,22 +2621,22 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50">
         <v>15.3</v>
@@ -2602,22 +2656,22 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51">
         <v>3.5</v>
@@ -2637,22 +2691,22 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52">
         <v>42</v>
@@ -2663,22 +2717,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53">
         <v>29</v>
@@ -2689,22 +2743,22 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54">
         <v>20</v>
@@ -2715,22 +2769,22 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -2741,22 +2795,22 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -2767,22 +2821,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57">
         <v>23.3</v>
@@ -2793,22 +2847,22 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2819,22 +2873,22 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59">
         <v>0.2</v>
@@ -2845,22 +2899,22 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60">
         <v>8</v>
@@ -2868,22 +2922,22 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -2894,22 +2948,22 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62">
         <v>0.4</v>
@@ -2920,22 +2974,22 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63">
         <v>0.4</v>
@@ -2946,22 +3000,22 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2972,22 +3026,22 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
         <v>39</v>
       </c>
-      <c r="C65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
-        <v>44</v>
-      </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65">
         <v>0.5</v>
@@ -2998,22 +3052,22 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -3024,22 +3078,22 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67">
         <v>12.3</v>
@@ -3050,22 +3104,22 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G68">
         <v>101</v>
@@ -3076,22 +3130,22 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G69">
         <v>94</v>
@@ -3102,22 +3156,22 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G70">
         <v>5</v>
@@ -3128,22 +3182,22 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -3154,22 +3208,22 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G72">
         <v>66</v>
@@ -3180,22 +3234,22 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G73">
         <v>7</v>
@@ -3206,22 +3260,22 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74">
         <v>107</v>
@@ -3232,22 +3286,22 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H75">
         <v>32</v>
@@ -3255,22 +3309,22 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G76">
         <v>62</v>
@@ -3281,22 +3335,22 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" t="s">
         <v>30</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" t="s">
-        <v>32</v>
       </c>
       <c r="G77">
         <v>349.81</v>
@@ -3307,22 +3361,22 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H78">
         <v>153105.24</v>
@@ -3339,22 +3393,22 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>293.82600000000002</v>
@@ -3371,22 +3425,22 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H80">
         <v>161827.9</v>
@@ -3403,22 +3457,22 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>293.363</v>
@@ -3435,22 +3489,22 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H82">
         <v>156519.29999999999</v>
@@ -3467,22 +3521,22 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>301.96300000000002</v>
@@ -3499,22 +3553,22 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H84">
         <v>156233.4</v>
@@ -3531,22 +3585,22 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>301.46800000000002</v>
@@ -3563,22 +3617,22 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F86" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H86">
         <v>170143.6</v>
@@ -3595,22 +3649,22 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>311.95699999999999</v>
@@ -3627,22 +3681,22 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F88" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H88">
         <v>168614.3</v>
@@ -3659,22 +3713,22 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>310.14299999999997</v>
@@ -3691,22 +3745,25 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H90">
+        <v>41.2</v>
       </c>
       <c r="I90">
         <v>38.9</v>
@@ -3717,230 +3774,257 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H91">
+        <v>41.2</v>
       </c>
       <c r="I91">
-        <v>50.8</v>
+        <v>36.6</v>
       </c>
       <c r="J91">
-        <v>56</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H92">
+        <v>41.9</v>
       </c>
       <c r="I92">
-        <v>52.5</v>
+        <v>50.8</v>
       </c>
       <c r="J92">
-        <v>50.9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H93">
+        <v>41.9</v>
       </c>
       <c r="I93">
-        <v>38.9</v>
+        <v>47.3</v>
       </c>
       <c r="J93">
-        <v>60.8</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H94">
+        <v>40.799999999999997</v>
       </c>
       <c r="I94">
-        <v>4.7</v>
+        <v>52.5</v>
       </c>
       <c r="J94">
-        <v>16.3</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H95">
+        <v>40.799999999999997</v>
       </c>
       <c r="I95">
-        <v>36.6</v>
+        <v>41.8</v>
       </c>
       <c r="J95">
-        <v>42.6</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H96">
+        <v>19.7</v>
       </c>
       <c r="I96">
-        <v>47.3</v>
+        <v>38.9</v>
       </c>
       <c r="J96">
-        <v>46.6</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H97">
+        <v>19.7</v>
       </c>
       <c r="I97">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="J97">
-        <v>25.7</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>41.7</v>
+        <v>4.7</v>
       </c>
       <c r="J98">
-        <v>64.8</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
       </c>
       <c r="I99">
         <v>7</v>
@@ -3951,1588 +4035,1588 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H100">
-        <v>41.2</v>
+        <v>22.1</v>
       </c>
       <c r="I100">
-        <v>38.9</v>
+        <v>31.2</v>
       </c>
       <c r="J100">
-        <v>48</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H101">
-        <v>41.2</v>
+        <v>22.1</v>
       </c>
       <c r="I101">
-        <v>36.6</v>
+        <v>30</v>
       </c>
       <c r="J101">
-        <v>42.6</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H102">
-        <v>41.9</v>
+        <v>23.6</v>
       </c>
       <c r="I102">
-        <v>50.8</v>
+        <v>30.1</v>
       </c>
       <c r="J102">
-        <v>56</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H103">
-        <v>41.9</v>
+        <v>23.6</v>
       </c>
       <c r="I103">
-        <v>47.3</v>
+        <v>31.2</v>
       </c>
       <c r="J103">
-        <v>46.6</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H104">
-        <v>40.799999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="I104">
-        <v>52.5</v>
+        <v>43</v>
       </c>
       <c r="J104">
-        <v>50.9</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H105">
-        <v>40.799999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="I105">
-        <v>41.8</v>
+        <v>40.1</v>
       </c>
       <c r="J105">
-        <v>25.7</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H106">
-        <v>19.7</v>
+        <v>13.4</v>
       </c>
       <c r="I106">
-        <v>38.9</v>
+        <v>13.1</v>
       </c>
       <c r="J106">
-        <v>60.8</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H107">
-        <v>19.7</v>
+        <v>13.4</v>
       </c>
       <c r="I107">
-        <v>41.7</v>
+        <v>8.5</v>
       </c>
       <c r="J107">
-        <v>64.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="I108">
-        <v>4.7</v>
+        <v>10.1</v>
       </c>
       <c r="J108">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="I109">
-        <v>7</v>
+        <v>10.6</v>
       </c>
       <c r="J109">
-        <v>21</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H110">
-        <v>22.1</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I110">
-        <v>31.2</v>
+        <v>43.1</v>
       </c>
       <c r="J110">
-        <v>42.3</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H111">
-        <v>22.1</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I111">
-        <v>30</v>
+        <v>39.6</v>
       </c>
       <c r="J111">
-        <v>37.200000000000003</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H112">
-        <v>23.6</v>
+        <v>33.4</v>
       </c>
       <c r="I112">
-        <v>30.1</v>
+        <v>43.4</v>
       </c>
       <c r="J112">
-        <v>36.799999999999997</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H113">
-        <v>23.6</v>
+        <v>33.4</v>
       </c>
       <c r="I113">
-        <v>31.2</v>
+        <v>41.8</v>
       </c>
       <c r="J113">
-        <v>38.1</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H114">
+        <v>28.4</v>
+      </c>
+      <c r="I114">
         <v>35.6</v>
       </c>
-      <c r="I114">
-        <v>43</v>
-      </c>
       <c r="J114">
-        <v>47.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H115">
-        <v>35.6</v>
+        <v>28.4</v>
       </c>
       <c r="I115">
-        <v>40.1</v>
+        <v>34</v>
       </c>
       <c r="J115">
-        <v>39.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H116">
-        <v>13.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I116">
-        <v>13.1</v>
+        <v>5.5</v>
       </c>
       <c r="J116">
-        <v>12.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H117">
-        <v>13.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I117">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="J117">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H118">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="I118">
-        <v>10.1</v>
+        <v>13.5</v>
       </c>
       <c r="J118">
-        <v>15.6</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H119">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="I119">
-        <v>10.6</v>
+        <v>13.1</v>
       </c>
       <c r="J119">
-        <v>16.7</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H120">
-        <v>36.200000000000003</v>
+        <v>9.4</v>
       </c>
       <c r="I120">
-        <v>43.1</v>
+        <v>11.7</v>
       </c>
       <c r="J120">
-        <v>53.5</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H121">
-        <v>36.200000000000003</v>
+        <v>9.4</v>
       </c>
       <c r="I121">
-        <v>39.6</v>
+        <v>12.2</v>
       </c>
       <c r="J121">
-        <v>46</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H122">
-        <v>33.4</v>
+        <v>3.8</v>
       </c>
       <c r="I122">
-        <v>43.4</v>
+        <v>4.3</v>
       </c>
       <c r="J122">
-        <v>53.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H123">
-        <v>33.4</v>
+        <v>3.8</v>
       </c>
       <c r="I123">
-        <v>41.8</v>
+        <v>3.8</v>
       </c>
       <c r="J123">
-        <v>48.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
         <v>69</v>
       </c>
-      <c r="D124" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" t="s">
-        <v>59</v>
-      </c>
       <c r="F124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H124">
-        <v>28.4</v>
+        <v>9.5</v>
       </c>
       <c r="I124">
-        <v>35.6</v>
+        <v>9.4</v>
       </c>
       <c r="J124">
-        <v>41</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H125">
-        <v>28.4</v>
+        <v>9.5</v>
       </c>
       <c r="I125">
-        <v>34</v>
+        <v>5.9</v>
       </c>
       <c r="J125">
-        <v>35.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H126">
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="I126">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="J126">
-        <v>6.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
+        <v>99</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
         <v>70</v>
       </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" t="s">
-        <v>60</v>
-      </c>
       <c r="F127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H127">
+        <v>3.5</v>
+      </c>
+      <c r="I127">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I127">
-        <v>5</v>
-      </c>
       <c r="J127">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>11.3</v>
       </c>
       <c r="I128">
-        <v>13.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J128">
-        <v>17.399999999999999</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H129">
-        <v>10</v>
+        <v>11.3</v>
       </c>
       <c r="I129">
-        <v>13.1</v>
+        <v>15.6</v>
       </c>
       <c r="J129">
-        <v>15.4</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
         <v>71</v>
       </c>
-      <c r="B130" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" t="s">
-        <v>76</v>
-      </c>
       <c r="F130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H130">
-        <v>9.4</v>
+        <v>13.7</v>
       </c>
       <c r="I130">
-        <v>11.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J130">
-        <v>15.8</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>99</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
         <v>71</v>
       </c>
-      <c r="B131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" t="s">
-        <v>70</v>
-      </c>
-      <c r="D131" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" t="s">
-        <v>76</v>
-      </c>
       <c r="F131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H131">
-        <v>9.4</v>
+        <v>13.7</v>
       </c>
       <c r="I131">
-        <v>12.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J131">
-        <v>16.2</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H132">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>4.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J132">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H133">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="J133">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H134">
-        <v>9.5</v>
+        <v>3.9</v>
       </c>
       <c r="I134">
-        <v>9.4</v>
+        <v>3.7</v>
       </c>
       <c r="J134">
-        <v>8.8000000000000007</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H135">
-        <v>9.5</v>
+        <v>3.9</v>
       </c>
       <c r="I135">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="J135">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H136">
         <v>3.5</v>
       </c>
       <c r="I136">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J136">
-        <v>7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H137">
         <v>3.5</v>
       </c>
       <c r="I137">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="J137">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H138">
-        <v>11.3</v>
+        <v>0.1</v>
       </c>
       <c r="I138">
-        <v>16.600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="J138">
-        <v>23.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H139">
-        <v>11.3</v>
+        <v>0.1</v>
       </c>
       <c r="I139">
-        <v>15.6</v>
+        <v>0.5</v>
       </c>
       <c r="J139">
-        <v>19.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H140">
-        <v>13.7</v>
+        <v>0.1</v>
       </c>
       <c r="I140">
-        <v>17.600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J140">
-        <v>19.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H141">
-        <v>13.7</v>
+        <v>0.1</v>
       </c>
       <c r="I141">
-        <v>18.100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="J141">
-        <v>20.7</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>27.8</v>
       </c>
       <c r="I142">
-        <v>1.1000000000000001</v>
+        <v>34.6</v>
       </c>
       <c r="J142">
-        <v>0.9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>27.8</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="J143">
-        <v>0.7</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H144">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H145">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H146">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="I146">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>6.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H147">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="I147">
-        <v>4.5</v>
+        <v>0.2</v>
       </c>
       <c r="J147">
-        <v>6.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H148">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I148">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="J148">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H149">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I149">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J149">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H150">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I150">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J150">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H151">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I151">
         <v>0.3</v>
       </c>
       <c r="J151">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H152">
-        <v>27.8</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>34.6</v>
+        <v>3.1</v>
       </c>
       <c r="J152">
-        <v>39</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H153">
-        <v>27.8</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>32.700000000000003</v>
+        <v>2.6</v>
       </c>
       <c r="J153">
-        <v>32.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -5546,22 +5630,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -5575,930 +5659,1412 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H156">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J156">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H157">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I157">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="J157">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H158">
-        <v>0.8</v>
+        <v>113</v>
       </c>
       <c r="I158">
-        <v>0.8</v>
+        <v>161.1</v>
       </c>
       <c r="J158">
-        <v>0.8</v>
+        <v>166.1</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H159">
-        <v>0.8</v>
+        <v>113</v>
       </c>
       <c r="I159">
-        <v>0.8</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="J159">
-        <v>0.8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H160">
-        <v>0.2</v>
+        <v>55.1</v>
       </c>
       <c r="I160">
-        <v>0.3</v>
+        <v>58.8</v>
       </c>
       <c r="J160">
-        <v>0.3</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H161">
-        <v>0.2</v>
+        <v>55.1</v>
       </c>
       <c r="I161">
-        <v>0.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J161">
-        <v>0.3</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="I162">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J162">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="I163">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="F164" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>88.6</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="F165" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>88.6</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>70.7</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H166">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>1.3</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J166">
-        <v>2.1</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H167">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>1.3</v>
+        <v>26.8</v>
       </c>
       <c r="J167">
-        <v>2</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H168">
-        <v>113</v>
+        <v>21.4</v>
       </c>
       <c r="I168">
-        <v>161.1</v>
+        <v>50.5</v>
       </c>
       <c r="J168">
-        <v>166.1</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H169">
-        <v>113</v>
+        <v>21.4</v>
       </c>
       <c r="I169">
-        <v>138.69999999999999</v>
+        <v>55.5</v>
       </c>
       <c r="J169">
-        <v>94</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H170">
-        <v>55.1</v>
+        <v>9.6</v>
       </c>
       <c r="I170">
-        <v>58.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="J170">
-        <v>75.8</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H171">
-        <v>55.1</v>
+        <v>9.6</v>
       </c>
       <c r="I171">
-        <v>36.299999999999997</v>
+        <v>37.9</v>
       </c>
       <c r="J171">
-        <v>30.4</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H172">
-        <v>0.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H173">
-        <v>0.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H174">
-        <v>88.6</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>69.900000000000006</v>
+        <v>7.7</v>
       </c>
       <c r="J174">
-        <v>68.099999999999994</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H175">
-        <v>88.6</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>70.7</v>
+        <v>7.8</v>
       </c>
       <c r="J175">
-        <v>69.400000000000006</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E176" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" t="s">
+        <v>30</v>
+      </c>
+      <c r="H176">
+        <v>369.3</v>
+      </c>
+      <c r="I176">
+        <v>440.1</v>
+      </c>
+      <c r="J176">
+        <v>477.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>63</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>99</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>29</v>
+      </c>
+      <c r="F177" t="s">
+        <v>30</v>
+      </c>
+      <c r="H177">
+        <v>369.3</v>
+      </c>
+      <c r="I177">
+        <v>382.6</v>
+      </c>
+      <c r="J177">
+        <v>332.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>86</v>
+      </c>
+      <c r="B178" t="s">
+        <v>87</v>
+      </c>
+      <c r="C178" t="s">
+        <v>90</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="s">
+        <v>88</v>
+      </c>
+      <c r="F178" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178">
+        <v>305</v>
+      </c>
+      <c r="I178">
+        <v>427</v>
+      </c>
+      <c r="J178">
+        <v>545</v>
+      </c>
+      <c r="K178">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>86</v>
+      </c>
+      <c r="B179" t="s">
+        <v>87</v>
+      </c>
+      <c r="C179" t="s">
+        <v>91</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>88</v>
+      </c>
+      <c r="F179" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179">
+        <v>305</v>
+      </c>
+      <c r="I179">
+        <v>440</v>
+      </c>
+      <c r="J179">
+        <v>591</v>
+      </c>
+      <c r="K179">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>86</v>
+      </c>
+      <c r="B180" t="s">
+        <v>87</v>
+      </c>
+      <c r="C180" t="s">
+        <v>89</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180">
+        <v>305</v>
+      </c>
+      <c r="I180">
+        <v>450</v>
+      </c>
+      <c r="J180">
+        <v>636</v>
+      </c>
+      <c r="K180">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>105</v>
+      </c>
+      <c r="B181" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" t="s">
+        <v>101</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>100</v>
+      </c>
+      <c r="F181" t="s">
+        <v>30</v>
+      </c>
+      <c r="H181">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="I181">
+        <v>146.9</v>
+      </c>
+      <c r="J181">
+        <v>89.2</v>
+      </c>
+      <c r="K181">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>105</v>
+      </c>
+      <c r="B182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182" t="s">
+        <v>95</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>29</v>
+      </c>
+      <c r="F182" t="s">
+        <v>30</v>
+      </c>
+      <c r="H182">
+        <v>382</v>
+      </c>
+      <c r="I182">
+        <v>357</v>
+      </c>
+      <c r="J182">
+        <v>161</v>
+      </c>
+      <c r="K182">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>105</v>
+      </c>
+      <c r="B183" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" t="s">
+        <v>95</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>100</v>
+      </c>
+      <c r="F183" t="s">
+        <v>30</v>
+      </c>
+      <c r="H183">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="I183">
+        <v>103.1</v>
+      </c>
+      <c r="J183">
+        <v>27.5</v>
+      </c>
+      <c r="K183">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>105</v>
+      </c>
+      <c r="B184" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184" t="s">
+        <v>95</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>102</v>
+      </c>
+      <c r="F184" t="s">
+        <v>20</v>
+      </c>
+      <c r="K184">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>105</v>
+      </c>
+      <c r="B185" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" t="s">
+        <v>95</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="s">
+        <v>103</v>
+      </c>
+      <c r="F185" t="s">
+        <v>20</v>
+      </c>
+      <c r="K185">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>105</v>
+      </c>
+      <c r="B186" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" t="s">
+        <v>95</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" t="s">
+        <v>104</v>
+      </c>
+      <c r="F186" t="s">
+        <v>20</v>
+      </c>
+      <c r="K186">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>108</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" t="s">
+        <v>93</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="s">
+        <v>106</v>
+      </c>
+      <c r="F187" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187">
+        <v>0.155</v>
+      </c>
+      <c r="J187">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>108</v>
+      </c>
+      <c r="B188" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" t="s">
+        <v>93</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>83</v>
+      </c>
+      <c r="F188" t="s">
+        <v>20</v>
+      </c>
+      <c r="I188">
+        <v>8.625</v>
+      </c>
+      <c r="J188">
+        <v>8.1829999999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>108</v>
+      </c>
+      <c r="B189" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189" t="s">
+        <v>93</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
         <v>24</v>
       </c>
-      <c r="F176" t="s">
-        <v>21</v>
-      </c>
-      <c r="H176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="J176">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>71</v>
-      </c>
-      <c r="B177" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" t="s">
-        <v>70</v>
-      </c>
-      <c r="D177" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="F189" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189">
+        <f>62.057+19.597</f>
+        <v>81.653999999999996</v>
+      </c>
+      <c r="J189">
+        <f>61.466+19.407</f>
+        <v>80.873000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>108</v>
+      </c>
+      <c r="B190" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" t="s">
+        <v>93</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" t="s">
+        <v>41</v>
+      </c>
+      <c r="F190" t="s">
+        <v>20</v>
+      </c>
+      <c r="I190">
+        <f>71.386+67.145</f>
+        <v>138.53100000000001</v>
+      </c>
+      <c r="J190">
+        <f>103.693+62.985</f>
+        <v>166.678</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>108</v>
+      </c>
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" t="s">
+        <v>93</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>43</v>
+      </c>
+      <c r="F191" t="s">
+        <v>20</v>
+      </c>
+      <c r="I191">
+        <v>120.113</v>
+      </c>
+      <c r="J191">
+        <v>147.72999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>108</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" t="s">
+        <v>93</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>26</v>
+      </c>
+      <c r="F192" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192">
+        <v>45.347999999999999</v>
+      </c>
+      <c r="J192">
+        <v>74.974999999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>108</v>
+      </c>
+      <c r="B193" t="s">
+        <v>31</v>
+      </c>
+      <c r="C193" t="s">
+        <v>93</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" t="s">
+        <v>25</v>
+      </c>
+      <c r="F193" t="s">
+        <v>20</v>
+      </c>
+      <c r="I193">
+        <v>65.287999999999997</v>
+      </c>
+      <c r="J193">
+        <v>122.505</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>108</v>
+      </c>
+      <c r="B194" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" t="s">
+        <v>93</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" t="s">
+        <v>27</v>
+      </c>
+      <c r="F194" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194">
+        <v>2.069</v>
+      </c>
+      <c r="J194">
+        <v>4.726</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>108</v>
+      </c>
+      <c r="B195" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" t="s">
+        <v>107</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" t="s">
+        <v>106</v>
+      </c>
+      <c r="F195" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195">
+        <v>9.42</v>
+      </c>
+      <c r="J195">
+        <v>11.742000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>108</v>
+      </c>
+      <c r="B196" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" t="s">
+        <v>107</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
+        <v>83</v>
+      </c>
+      <c r="F196" t="s">
+        <v>20</v>
+      </c>
+      <c r="I196">
+        <v>13.006</v>
+      </c>
+      <c r="J196">
+        <v>12.269</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>108</v>
+      </c>
+      <c r="B197" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" t="s">
+        <v>107</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
         <v>24</v>
       </c>
-      <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>26.8</v>
-      </c>
-      <c r="J177">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>71</v>
-      </c>
-      <c r="B178" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" t="s">
-        <v>69</v>
-      </c>
-      <c r="D178" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="F197" t="s">
+        <v>20</v>
+      </c>
+      <c r="I197">
+        <f>62.169+20.637</f>
+        <v>82.805999999999997</v>
+      </c>
+      <c r="J197">
+        <f>72.803+28.855</f>
+        <v>101.658</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>108</v>
+      </c>
+      <c r="B198" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" t="s">
+        <v>107</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198">
+        <f>36.026+43.504</f>
+        <v>79.53</v>
+      </c>
+      <c r="J198">
+        <f>48.033+42</f>
+        <v>90.033000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>108</v>
+      </c>
+      <c r="B199" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" t="s">
+        <v>107</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" t="s">
+        <v>43</v>
+      </c>
+      <c r="F199" t="s">
+        <v>20</v>
+      </c>
+      <c r="I199">
+        <v>106.794</v>
+      </c>
+      <c r="J199">
+        <v>104.407</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>108</v>
+      </c>
+      <c r="B200" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" t="s">
+        <v>107</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
         <v>26</v>
       </c>
-      <c r="F178" t="s">
-        <v>21</v>
-      </c>
-      <c r="H178">
-        <v>21.4</v>
-      </c>
-      <c r="I178">
-        <v>50.5</v>
-      </c>
-      <c r="J178">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>71</v>
-      </c>
-      <c r="B179" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179" t="s">
-        <v>70</v>
-      </c>
-      <c r="D179" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179" t="s">
-        <v>26</v>
-      </c>
-      <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="H179">
-        <v>21.4</v>
-      </c>
-      <c r="I179">
-        <v>55.5</v>
-      </c>
-      <c r="J179">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>71</v>
-      </c>
-      <c r="B180" t="s">
-        <v>6</v>
-      </c>
-      <c r="C180" t="s">
-        <v>69</v>
-      </c>
-      <c r="D180" t="s">
-        <v>8</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="F200" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200">
+        <v>49.698</v>
+      </c>
+      <c r="J200">
+        <v>75.042000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>108</v>
+      </c>
+      <c r="B201" t="s">
+        <v>31</v>
+      </c>
+      <c r="C201" t="s">
+        <v>107</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>25</v>
+      </c>
+      <c r="F201" t="s">
+        <v>20</v>
+      </c>
+      <c r="I201">
+        <v>76.096999999999994</v>
+      </c>
+      <c r="J201">
+        <v>126.139</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>108</v>
+      </c>
+      <c r="B202" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" t="s">
+        <v>107</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" t="s">
         <v>27</v>
       </c>
-      <c r="F180" t="s">
-        <v>21</v>
-      </c>
-      <c r="H180">
-        <v>9.6</v>
-      </c>
-      <c r="I180">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="J180">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>71</v>
-      </c>
-      <c r="B181" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" t="s">
-        <v>70</v>
-      </c>
-      <c r="D181" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" t="s">
-        <v>27</v>
-      </c>
-      <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="H181">
-        <v>9.6</v>
-      </c>
-      <c r="I181">
-        <v>37.9</v>
-      </c>
-      <c r="J181">
-        <v>74.7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>71</v>
-      </c>
-      <c r="B182" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" t="s">
-        <v>69</v>
-      </c>
-      <c r="D182" t="s">
-        <v>8</v>
-      </c>
-      <c r="E182" t="s">
-        <v>92</v>
-      </c>
-      <c r="F182" t="s">
-        <v>21</v>
-      </c>
-      <c r="H182">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I182">
-        <v>24.3</v>
-      </c>
-      <c r="J182">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>71</v>
-      </c>
-      <c r="B183" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" t="s">
-        <v>70</v>
-      </c>
-      <c r="D183" t="s">
-        <v>8</v>
-      </c>
-      <c r="E183" t="s">
-        <v>92</v>
-      </c>
-      <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="H183">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I183">
-        <v>25</v>
-      </c>
-      <c r="J183">
-        <v>28.3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>71</v>
-      </c>
-      <c r="B184" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" t="s">
-        <v>69</v>
-      </c>
-      <c r="D184" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="F202" t="s">
+        <v>20</v>
+      </c>
+      <c r="I202">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="J202">
+        <v>4.2750000000000004</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>108</v>
+      </c>
+      <c r="B203" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203" t="s">
+        <v>93</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
         <v>29</v>
       </c>
-      <c r="F184" t="s">
-        <v>21</v>
-      </c>
-      <c r="H184">
-        <v>4</v>
-      </c>
-      <c r="I184">
-        <v>7.7</v>
-      </c>
-      <c r="J184">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>71</v>
-      </c>
-      <c r="B185" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" t="s">
-        <v>70</v>
-      </c>
-      <c r="D185" t="s">
-        <v>8</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="F203" t="s">
+        <v>30</v>
+      </c>
+      <c r="H203">
+        <v>505</v>
+      </c>
+      <c r="I203">
+        <v>619.6</v>
+      </c>
+      <c r="J203">
+        <v>815.1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>108</v>
+      </c>
+      <c r="B204" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204" t="s">
+        <v>107</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" t="s">
         <v>29</v>
       </c>
-      <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="H185">
-        <v>4</v>
-      </c>
-      <c r="I185">
-        <v>7.8</v>
-      </c>
-      <c r="J185">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>71</v>
-      </c>
-      <c r="B186" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" t="s">
-        <v>69</v>
-      </c>
-      <c r="D186" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="F204" t="s">
+        <v>30</v>
+      </c>
+      <c r="H204">
+        <v>477.6</v>
+      </c>
+      <c r="I204">
+        <v>553</v>
+      </c>
+      <c r="J204">
+        <v>686.7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>108</v>
+      </c>
+      <c r="B205" t="s">
         <v>31</v>
       </c>
-      <c r="F186" t="s">
-        <v>32</v>
-      </c>
-      <c r="H186">
-        <v>369.3</v>
-      </c>
-      <c r="I186">
-        <v>440.1</v>
-      </c>
-      <c r="J186">
-        <v>477.2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>71</v>
-      </c>
-      <c r="B187" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" t="s">
-        <v>70</v>
-      </c>
-      <c r="D187" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" t="s">
-        <v>31</v>
-      </c>
-      <c r="F187" t="s">
-        <v>32</v>
-      </c>
-      <c r="H187">
-        <v>369.3</v>
-      </c>
-      <c r="I187">
-        <v>382.6</v>
-      </c>
-      <c r="J187">
-        <v>332.3</v>
+      <c r="C205" t="s">
+        <v>109</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>29</v>
+      </c>
+      <c r="F205" t="s">
+        <v>30</v>
+      </c>
+      <c r="H205">
+        <v>461.9</v>
+      </c>
+      <c r="I205">
+        <v>492.9</v>
+      </c>
+      <c r="J205">
+        <v>541.20000000000005</v>
       </c>
     </row>
   </sheetData>
